--- a/bandwidth/bandwidth.xlsx
+++ b/bandwidth/bandwidth.xlsx
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>1.007945066</v>
+        <v>0.97945066</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
